--- a/db_pembayaran3.xlsx
+++ b/db_pembayaran3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42215D9-91F2-43D4-AAD9-4650E19D103C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115ED1A-977A-44E9-B875-EF4E86F54889}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>Akhir_Tahun</t>
+  </si>
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>NoTelpHP</t>
+  </si>
+  <si>
+    <t>TTD1Nama</t>
+  </si>
+  <si>
+    <t>TTD1Jabatan</t>
+  </si>
+  <si>
+    <t>TTD2Nama</t>
+  </si>
+  <si>
+    <t>TTD2Jabatan</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
@@ -572,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -704,10 +725,16 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -723,6 +750,24 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -731,12 +776,12 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -755,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -763,6 +808,24 @@
       <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -780,7 +843,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -789,7 +852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:J12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -802,36 +865,31 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -840,94 +898,66 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
-        <f>t01_sekolah!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -936,9 +966,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -949,14 +979,13 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -969,26 +998,22 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -999,142 +1024,114 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
-        <f>t00_tahunajaran!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
